--- a/mo-200/DSA MO 200 3. Manage tables and table data.xlsx
+++ b/mo-200/DSA MO 200 3. Manage tables and table data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranielbartetaripe/Business/DataSense Analytics/Training Proper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jelisha\Documents\GitHub\excel-projects\mo-200\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6412A3CF-21CF-3A4B-9D9E-667E128CFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8973ABD8-45D3-4C93-AD24-5CF42A688A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MO 200 Section 3 - Index" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="93">
   <si>
     <t>SN</t>
   </si>
@@ -357,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,8 +460,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,8 +494,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -553,12 +576,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -626,12 +658,1060 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -644,26 +1724,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -671,6 +1731,70 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -720,8 +1844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="177404" y="3713876"/>
-          <a:ext cx="4776264" cy="735134"/>
+          <a:off x="177404" y="3696096"/>
+          <a:ext cx="4664504" cy="704654"/>
           <a:chOff x="177404" y="6460251"/>
           <a:chExt cx="4639739" cy="735134"/>
         </a:xfrm>
@@ -904,6 +2028,33 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6CB06669-AADF-4157-9234-632710C67918}" name="Table2" displayName="Table2" ref="A5:P23" totalsRowCount="1" headerRowDxfId="36" dataDxfId="37" tableBorderDxfId="38">
+  <autoFilter ref="A5:P22" xr:uid="{6CB06669-AADF-4157-9234-632710C67918}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{F49C1D2A-BED9-4CB8-AC5F-55F282EE2A1E}" name="Airport" totalsRowLabel="Total" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{A71C426B-A22C-48FE-87C9-20DD980C8D46}" name="Category" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{7F52CDEA-D8DE-4F61-AA2E-2867EB89D22E}" name="IATA airport code" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{459C4372-A86A-484E-BF6C-25A58B34DF96}" name="Jan" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{DDE9E0E6-2D9D-4FCF-9C5A-4834E8EF3E26}" name="Feb" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{163FF12D-A75C-4264-804A-E3C616DB5A1D}" name="Mar" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{69B71F59-375B-485E-A2B3-AEAC5CCC481C}" name="Apr" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{48129291-AC90-424A-98A9-36E1E8773D8F}" name="May" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{680A4D43-7A8A-455D-9E80-2AA64578632F}" name="Jun" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{BC0C7FC0-48BB-4424-8D6C-106D158873B3}" name="Jul" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{91A42599-65B0-4191-BFE3-C8F5C19F2BA3}" name="Aug" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{A19D5D43-79B0-4292-BF1E-05BF6E87E1D3}" name="Sep" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{4B2BC57C-ECAD-4FDE-AC9A-8DB6A6B23169}" name="Oct" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{95A63502-76F8-4B50-AAE1-234FD00C2CE8}" name="Nov" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{1CACD82E-C31A-4BF0-8052-27BC7DD73C3C}" name="Dec" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D0EEBAA3-C91C-43A5-9B17-9E8FF2982E85}" name="Total" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUM(D6:O6)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1176,23 +2327,23 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="12" customWidth="1"/>
     <col min="2" max="2" width="75.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="80.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="4"/>
-    <col min="6" max="6" width="9.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="4" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="5" width="9.109375" style="4"/>
+    <col min="6" max="6" width="9.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,11 +2351,11 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +2369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1228,7 +2379,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>3.1</v>
       </c>
@@ -1243,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>25</v>
       </c>
@@ -1251,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>88</v>
@@ -1260,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>89</v>
@@ -1277,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
@@ -1285,7 +2436,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>90</v>
@@ -1294,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>3.2</v>
       </c>
@@ -1306,7 +2457,7 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>28</v>
       </c>
@@ -1314,11 +2465,11 @@
         <v>19</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
@@ -1326,13 +2477,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>30</v>
       </c>
@@ -1340,13 +2491,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>3.3</v>
       </c>
@@ -1358,7 +2509,7 @@
       </c>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>31</v>
       </c>
@@ -1366,13 +2517,13 @@
         <v>23</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -1380,28 +2531,28 @@
         <v>24</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>10</v>
       </c>
@@ -1409,19 +2560,19 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="YQAuvhJIEv9ksN+VtHEGAicGi/VtBd7cJirq9OE/pv7vUXG+WEADM3iM6Fr4kMzAujabdaiheiEF5PwTbbCckg==" saltValue="MMrO26+0ktQGxmSSpW6mUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B15">
+    <cfRule type="duplicateValues" dxfId="35" priority="8"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"Review Later"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"Done but needs practice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"Done &amp; Understood"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B15">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C15" xr:uid="{96962207-EE2F-4BE2-8F92-206607751FDF}">
@@ -1445,19 +2596,19 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD36"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +2628,7 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1497,926 +2648,952 @@
       <c r="O4"/>
       <c r="P4"/>
     </row>
-    <row r="5" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>741</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>570</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="23">
         <v>889</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="23">
         <v>1000</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="23">
         <v>864</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="23">
         <v>624</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="23">
         <v>748</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="23">
         <v>760</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="23">
         <v>997</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="23">
         <v>667</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="23">
         <v>854</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="23">
         <v>942</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="23">
         <f>SUM(D6:O6)</f>
         <v>9656</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="24">
         <v>876</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="24">
         <v>630</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="24">
         <v>828</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="24">
         <v>661</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="24">
         <v>825</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="24">
         <v>784</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="24">
         <v>926</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="24">
         <v>540</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="24">
         <v>691</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="24">
         <v>820</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="24">
         <v>912</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="24">
         <v>658</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="24">
         <f t="shared" ref="P7:P22" si="0">SUM(D7:O7)</f>
         <v>9151</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>617</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="23">
         <v>1015</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="23">
         <v>1246</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="23">
         <v>1491</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="23">
         <v>775</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="23">
         <v>803</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="23">
         <v>1050</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="23">
         <v>625</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="23">
         <v>1463</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="23">
         <v>856</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="23">
         <v>829</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="23">
         <v>1433</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="23">
         <f t="shared" si="0"/>
         <v>12203</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="24">
         <v>630</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="24">
         <v>599</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="24">
         <v>793</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="24">
         <v>903</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="24">
         <v>748</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="24">
         <v>641</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="24">
         <v>859</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="24">
         <v>505</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="24">
         <v>701</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="24">
         <v>685</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="24">
         <v>551</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="24">
         <v>779</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="24">
         <f t="shared" si="0"/>
         <v>8394</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="23">
         <v>580</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="23">
         <v>604</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="23">
         <v>588</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="23">
         <v>638</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="23">
         <v>984</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="23">
         <v>764</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="23">
         <v>929</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="23">
         <v>681</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="23">
         <v>541</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="23">
         <v>649</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="23">
         <v>507</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="23">
         <v>660</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="23">
         <f t="shared" si="0"/>
         <v>8125</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="24">
         <v>663</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="24">
         <v>629</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="24">
         <v>848</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="24">
         <v>915</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="24">
         <v>801</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="24">
         <v>591</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="24">
         <v>922</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="24">
         <v>803</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="24">
         <v>840</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="24">
         <v>633</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="24">
         <v>624</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="24">
         <v>729</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="24">
         <f t="shared" si="0"/>
         <v>8998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="23">
         <v>860</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="23">
         <v>506</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="23">
         <v>709</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="23">
         <v>802</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="23">
         <v>925</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="23">
         <v>709</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="23">
         <v>530</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="23">
         <v>778</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="23">
         <v>756</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="23">
         <v>844</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="23">
         <v>825</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="23">
         <v>523</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="23">
         <f t="shared" si="0"/>
         <v>8767</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="24">
         <v>749</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="24">
         <v>672</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="24">
         <v>552</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="24">
         <v>791</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="24">
         <v>952</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="24">
         <v>717</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="24">
         <v>876</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="24">
         <v>787</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="24">
         <v>883</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="24">
         <v>956</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="24">
         <v>627</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="24">
         <v>774</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="24">
         <f t="shared" si="0"/>
         <v>9336</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="23">
         <v>944</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="23">
         <v>690</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="23">
         <v>520</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="23">
         <v>635</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="23">
         <v>952</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="23">
         <v>572</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="23">
         <v>931</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="23">
         <v>640</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="23">
         <v>593</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="23">
         <v>970</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="23">
         <v>526</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="23">
         <v>897</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="23">
         <f t="shared" si="0"/>
         <v>8870</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="24">
         <v>665</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="24">
         <v>554</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="24">
         <v>875</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="24">
         <v>780</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="24">
         <v>506</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="24">
         <v>807</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="24">
         <v>835</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="24">
         <v>812</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="24">
         <v>844</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="24">
         <v>820</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="24">
         <v>994</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="24">
         <v>964</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="24">
         <f t="shared" si="0"/>
         <v>9456</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="23">
         <v>554</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="23">
         <v>935</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="23">
         <v>828</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="23">
         <v>516</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="23">
         <v>880</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="23">
         <v>805</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="23">
         <v>536</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="23">
         <v>907</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="23">
         <v>993</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="23">
         <v>973</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="23">
         <v>524</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="23">
         <v>858</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="23">
         <f t="shared" si="0"/>
         <v>9309</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="24">
         <v>978</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="24">
         <v>678</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="24">
         <v>980</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="24">
         <v>649</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="24">
         <v>596</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="24">
         <v>971</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="24">
         <v>558</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="24">
         <v>634</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="24">
         <v>702</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="24">
         <v>839</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="24">
         <v>577</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="24">
         <v>538</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="24">
         <f t="shared" si="0"/>
         <v>8700</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="23">
         <v>693</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="23">
         <v>748</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="23">
         <v>720</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="23">
         <v>554</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="23">
         <v>680</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="23">
         <v>669</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="23">
         <v>584</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="23">
         <v>684</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="23">
         <v>929</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="23">
         <v>779</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="23">
         <v>954</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="23">
         <v>788</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="23">
         <f t="shared" si="0"/>
         <v>8782</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="24">
         <v>744</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="24">
         <v>1173</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="24">
         <v>1719</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="24">
         <v>1337</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="24">
         <v>1155</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="24">
         <v>1624</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="24">
         <v>934</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="24">
         <v>1414</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="24">
         <v>1359</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="24">
         <v>1631</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="24">
         <v>1979</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="24">
         <v>1835</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="24">
         <f t="shared" si="0"/>
         <v>16904</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="23">
         <v>927</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="23">
         <v>898</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="23">
         <v>977</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="23">
         <v>723</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="23">
         <v>908</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="23">
         <v>1188</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="23">
         <v>1161</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="23">
         <v>960</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="23">
         <v>734</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="23">
         <v>1251</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="23">
         <v>1105</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="23">
         <v>1030</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="23">
         <f t="shared" si="0"/>
         <v>11862</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="24">
         <v>544</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="24">
         <v>976</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="24">
         <v>742</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="24">
         <v>755</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="24">
         <v>801</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="24">
         <v>979</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="24">
         <v>656</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="24">
         <v>811</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="24">
         <v>879</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="24">
         <v>746</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="24">
         <v>529</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="24">
         <v>550</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="24">
         <f t="shared" si="0"/>
         <v>8968</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="23">
         <v>568</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="23">
         <v>856</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="23">
         <v>975</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="23">
         <v>611</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="23">
         <v>746</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="23">
         <v>510</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="23">
         <v>777</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="23">
         <v>862</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="23">
         <v>616</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="23">
         <v>951</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="23">
         <v>931</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="23">
         <v>450</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="23">
         <f t="shared" si="0"/>
         <v>8853</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26">
+        <f>SUBTOTAL(109,Table2[Total])</f>
+        <v>166334</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>